--- a/Cycle2_AlgorithmComparison/results/privacy.xlsx
+++ b/Cycle2_AlgorithmComparison/results/privacy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,28 +436,61 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>GMM</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CTGAN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>TVAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TIMEGAN</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Membership Inference Risk</t>
+          <t>NNAA Risk</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4854308741475512</v>
+        <v>0.0005537500000001305</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.001890000000000058</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.001498749999999993</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0002412500000000817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>NNAA Risk</t>
+          <t>Membership Inference Risk</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001524999999999999</v>
+        <v>0.4852384557153672</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4896030245746692</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4698715837998024</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1304347826086956</v>
       </c>
     </row>
   </sheetData>
